--- a/data/trans_dic/IP21-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,3</t>
+          <t>3,26; 28,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,15</t>
+          <t>0,0; 27,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,78</t>
+          <t>0,0; 19,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,5</t>
+          <t>0; 9,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,59</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,89</t>
+          <t>0; 7,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,83</t>
+          <t>0; 7,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,28</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,98</t>
+          <t>1,7; 16,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,61</t>
+          <t>0,0; 13,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,07</t>
+          <t>0,0; 11,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,9</t>
+          <t>0; 3,98</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,09</t>
+          <t>2,45; 7,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,65</t>
+          <t>1,47; 5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,74</t>
+          <t>1,29; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,88</t>
+          <t>0,65; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,22</t>
+          <t>3,52; 8,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,83</t>
+          <t>2,93; 7,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,71</t>
+          <t>2,48; 6,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,31; 3,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,92</t>
+          <t>3,68; 6,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,38</t>
+          <t>2,53; 5,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,07</t>
+          <t>2,19; 5,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,79</t>
+          <t>0,66; 2,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 28,39</t>
+          <t>2,7; 8,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,26</t>
+          <t>3,56; 9,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,97</t>
+          <t>0,52; 4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>2,42; 8,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>1,67; 6,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,74; 4,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,08; 5,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,05</t>
+          <t>3,13; 7,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,7</t>
+          <t>3,08; 7,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,83</t>
+          <t>0,89; 3,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0,53; 2,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,57</t>
+          <t>3,22; 8,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,7</t>
+          <t>2,55; 7,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,12</t>
+          <t>1,04; 4,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0,96; 4,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,25</t>
+          <t>0,7; 4,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,79</t>
+          <t>2,03; 6,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,74</t>
+          <t>1,07; 4,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,44</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,31</t>
+          <t>2,19; 4,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,03</t>
+          <t>2,91; 6,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,44</t>
+          <t>1,4; 4,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,57</t>
+          <t>0,64; 2,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 28,39</t>
+          <t>6,07; 31,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,26</t>
+          <t>0,0; 28,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,97</t>
+          <t>0,0; 20,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,05</t>
+          <t>1,68; 16,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,7</t>
+          <t>0,0; 16,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,83</t>
+          <t>0,0; 10,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,65</t>
+          <t>0,47; 4,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,24</t>
+          <t>1,57; 7,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,25</t>
+          <t>1,79; 8,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,88</t>
+          <t>0,89; 5,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,37</t>
+          <t>1,15; 6,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,08</t>
+          <t>1,17; 6,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,71</t>
+          <t>1,26; 7,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,7</t>
+          <t>0,5; 4,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,42</t>
+          <t>1,14; 4,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,94</t>
+          <t>1,94; 6,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,62</t>
+          <t>2,32; 6,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,04</t>
+          <t>1,1; 4,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,3</t>
+          <t>2,72; 7,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,15</t>
+          <t>1,48; 5,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,78</t>
+          <t>1,24; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,5</t>
+          <t>0,62; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,59</t>
+          <t>3,47; 8,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,89</t>
+          <t>3,11; 8,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,83</t>
+          <t>2,55; 6,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,28</t>
+          <t>0,31; 2,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,98</t>
+          <t>3,63; 7,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,61</t>
+          <t>2,63; 5,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,07</t>
+          <t>2,33; 5,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,9</t>
+          <t>0,68; 2,88</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,57</t>
+          <t>2,65; 8,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,7</t>
+          <t>3,43; 9,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,12</t>
+          <t>0,53; 5,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 8,25</t>
+          <t>2,33; 8,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,79</t>
+          <t>1,66; 6,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,74</t>
+          <t>0,73; 4,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,44</t>
+          <t>1,11; 5,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,31</t>
+          <t>3,17; 7,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,03</t>
+          <t>3,27; 7,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,44</t>
+          <t>0,87; 3,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,57</t>
+          <t>0,6; 2,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,09</t>
+          <t>3,17; 8,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,65</t>
+          <t>2,63; 8,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,74</t>
+          <t>1,1; 4,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,88</t>
+          <t>1,04; 5,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,22</t>
+          <t>0,68; 4,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,83</t>
+          <t>2,03; 6,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,71</t>
+          <t>1,13; 5,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,92</t>
+          <t>2,16; 5,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,38</t>
+          <t>2,9; 6,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,07</t>
+          <t>1,39; 4,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,79</t>
+          <t>0,66; 2,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,16</t>
+          <t>3,41; 5,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,91</t>
+          <t>3,24; 5,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,02</t>
+          <t>1,84; 4,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,62</t>
+          <t>0,97; 2,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,03</t>
+          <t>2,76; 5,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,43</t>
+          <t>2,97; 5,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,2</t>
+          <t>2,16; 4,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,32</t>
+          <t>0,8; 2,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,1</t>
+          <t>3,37; 5,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,15</t>
+          <t>3,45; 5,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,64</t>
+          <t>2,26; 3,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,2</t>
+          <t>1,05; 2,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 31,66</t>
+          <t>3,31; 30,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,1</t>
+          <t>0,0; 26,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,01</t>
+          <t>0,0; 24,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 16,64</t>
+          <t>1,71; 14,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,89</t>
+          <t>0,0; 14,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,87</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,28</t>
+          <t>0,47; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,68</t>
+          <t>1,57; 7,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,32</t>
+          <t>1,84; 8,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,33</t>
+          <t>0,89; 5,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,81</t>
+          <t>1,13; 6,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,96</t>
+          <t>1,66; 7,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,25</t>
+          <t>1,29; 7,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,41</t>
+          <t>0,53; 5,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,53</t>
+          <t>1,25; 4,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,29</t>
+          <t>1,95; 6,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,62</t>
+          <t>2,56; 6,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,28</t>
+          <t>1,02; 4,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,38</t>
+          <t>2,74; 7,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,43</t>
+          <t>1,49; 5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,04</t>
+          <t>1,34; 4,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,46</t>
+          <t>0,66; 4,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,46</t>
+          <t>3,47; 8,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,37</t>
+          <t>2,94; 8,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,9</t>
+          <t>2,45; 7,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,85</t>
+          <t>0,31; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,0</t>
+          <t>3,68; 6,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,65</t>
+          <t>2,68; 5,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,1</t>
+          <t>2,29; 5,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,88</t>
+          <t>0,67; 2,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,1</t>
+          <t>2,66; 8,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,31</t>
+          <t>3,47; 9,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,19</t>
+          <t>0,53; 4,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,29</t>
+          <t>2,6; 8,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,66</t>
+          <t>1,77; 6,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,49</t>
+          <t>0,72; 4,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,83</t>
+          <t>1,22; 5,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,36</t>
+          <t>3,12; 7,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,13</t>
+          <t>3,2; 6,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,33</t>
+          <t>0,88; 3,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,89</t>
+          <t>0,51; 2,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,51</t>
+          <t>3,19; 8,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,2</t>
+          <t>2,56; 7,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,66</t>
+          <t>1,03; 4,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,14</t>
+          <t>1,21; 5,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,29</t>
+          <t>0,71; 3,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,72</t>
+          <t>2,05; 6,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,01</t>
+          <t>1,04; 4,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,15</t>
+          <t>2,31; 5,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,58</t>
+          <t>2,83; 6,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,08</t>
+          <t>1,41; 4,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,7</t>
+          <t>0,7; 3,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,98</t>
+          <t>3,45; 6,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,72</t>
+          <t>3,23; 5,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,02</t>
+          <t>1,86; 3,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,65</t>
+          <t>0,95; 2,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,14</t>
+          <t>2,7; 5,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,41</t>
+          <t>3,03; 5,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,24</t>
+          <t>2,06; 4,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,3</t>
+          <t>0,84; 2,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,07</t>
+          <t>3,4; 5,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,14</t>
+          <t>3,48; 5,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,67</t>
+          <t>2,32; 3,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,22</t>
+          <t>1,04; 2,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 30,5</t>
+          <t>1,03; 5,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,35</t>
+          <t>0,98; 5,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,0</t>
+          <t>1,01; 6,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,48; 4,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>1,5; 6,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>2,13; 8,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>2,09; 8,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,73; 4,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 14,89</t>
+          <t>1,71; 5,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,47</t>
+          <t>2,12; 5,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,71</t>
+          <t>2,29; 6,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0,95; 3,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,57</t>
+          <t>3,52; 8,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,42</t>
+          <t>2,93; 7,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 8,23</t>
+          <t>2,48; 6,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,66</t>
+          <t>0,32; 3,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,77</t>
+          <t>2,45; 7,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,44</t>
+          <t>1,47; 5,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,09</t>
+          <t>1,29; 4,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,03</t>
+          <t>0,66; 4,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,52</t>
+          <t>3,68; 6,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,04</t>
+          <t>2,53; 5,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,62</t>
+          <t>2,19; 5,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,15</t>
+          <t>0,68; 3,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,35</t>
+          <t>2,42; 8,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,16</t>
+          <t>1,67; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,85</t>
+          <t>0,74; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,15</t>
+          <t>0,88; 4,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,73</t>
+          <t>2,7; 8,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,27</t>
+          <t>3,56; 9,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,12</t>
+          <t>0,52; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,06</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,99</t>
+          <t>3,13; 7,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,73</t>
+          <t>3,08; 7,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,3</t>
+          <t>0,89; 3,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,98</t>
+          <t>0,49; 2,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,47</t>
+          <t>0,7; 4,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,34</t>
+          <t>2,03; 6,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,14</t>
+          <t>1,07; 4,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,33</t>
+          <t>3,22; 8,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,74</t>
+          <t>2,55; 7,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,33</t>
+          <t>1,04; 4,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,3</t>
+          <t>0,92; 4,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,03</t>
+          <t>2,19; 4,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,88</t>
+          <t>2,91; 6,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,52</t>
+          <t>1,4; 4,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,88</t>
+          <t>0,67; 2,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,46</t>
+          <t>2,72; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,96</t>
+          <t>2,9; 5,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,9</t>
+          <t>2,16; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,22</t>
+          <t>0,75; 2,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,95</t>
+          <t>3,42; 6,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,85</t>
+          <t>3,31; 5,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,98</t>
+          <t>1,93; 4,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,98; 2,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,22</t>
+          <t>3,38; 5,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,28</t>
+          <t>3,41; 5,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,04</t>
+          <t>2,22; 3,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,05</t>
+          <t>1,05; 2,24</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,24%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 6,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 5,85</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 3,87</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 2,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 5,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 5,44</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 4,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 2,36</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 5,06</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 5,21</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 3,82</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 2,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
